--- a/pertidynamicforms/prototipo/Book1.xlsx
+++ b/pertidynamicforms/prototipo/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\github\pertidynamicforms\prototipo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\github\pertidynamicforms\pertidynamicforms\prototipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386A3E7-8B61-4A3C-87A3-686C45C15674}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6A028-59BC-4787-81AC-A49D2B9AFFCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4580680-3266-4713-BB31-0AFAE27FE6A2}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,13 @@
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,11 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +521,7 @@
   <dimension ref="C4:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +556,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -568,7 +576,7 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -624,7 +632,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
